--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -22,10 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>章节细分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +75,10 @@
   </si>
   <si>
     <t>人类的故事[THE STORY OF MANKIND]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节细分(0为序章）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -448,31 +448,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -480,16 +480,16 @@
         <v>43727</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -503,16 +503,16 @@
         <v>43727</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>43727</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="645" windowWidth="21075" windowHeight="5250"/>
+    <workbookView xWindow="840" yWindow="645" windowWidth="21075" windowHeight="5250" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="english_vocabulary" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="book_index" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>词汇</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,51 +45,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hinges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangible darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源名（中文[英文]）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类的故事[THE STORY OF MANKIND]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISBN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者（英文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出版社(英文)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>978-7-5155-0558-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类的故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THE STORY OF MANKIND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[美]亨德里克·威廉·房龙著 余杰译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hendrik Willem Van Loon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城出版社</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD WALL PRESS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节细分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前言（FOREWORD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sexton</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hinges</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tangible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tangible darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hinge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源名（中文[英文]）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类的故事[THE STORY OF MANKIND]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节细分(0为序章）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>trespassing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅自进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trespassing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>擅自进入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gerbil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chirping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[昆] 鸣叫；啁啾声；鸟叫声</t>
+  </si>
+  <si>
+    <t>barn swallow</t>
+  </si>
+  <si>
+    <t>家燕</t>
+  </si>
+  <si>
+    <t>what remains of Editon Finch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maiden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj. 成荫的；阴暗的；名声不好的</t>
+  </si>
+  <si>
+    <t>n. 少女，处女；未婚女子；（板球比赛中）未得分的一轮投球；从未跑赢过的赛马</t>
+  </si>
+  <si>
+    <t>carnvial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 狂欢节，嘉年华会；饮宴狂欢</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +246,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,12 +276,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -446,9 +603,9 @@
     <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -460,91 +617,111 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43727</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>43727</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43727</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>9</v>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -556,14 +733,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -580,4 +817,109 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>